--- a/perofsky_2021_mol_ecol_data_dictionary.xlsx
+++ b/perofsky_2021_mol_ecol_data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih-my.sharepoint.com/personal/perofskyamc_nih_gov/Documents/NIH_Laptop_Updates_Post_Damage/Documents/Sifaka_KMNP_2016/Final_Code/Cleaned_Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="812" documentId="8_{71E874C2-CDF2-D349-A0FC-642C91262CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6837720-8257-814D-B536-E7DE3FD8CB1E}"/>
+  <xr:revisionPtr revIDLastSave="813" documentId="8_{71E874C2-CDF2-D349-A0FC-642C91262CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E625BDF0-9DB2-F84F-BC3B-1F75D9BBB918}"/>
   <bookViews>
     <workbookView xWindow="39880" yWindow="460" windowWidth="32120" windowHeight="19420" xr2:uid="{CEB39DE3-A4C9-1446-875B-53A18B646167}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="259">
   <si>
     <t>Column</t>
   </si>
@@ -815,6 +815,9 @@
   </si>
   <si>
     <t>Metadata for R phyloseq objects and input dataframes for main figures and statistical analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each input, the file defines variables ("Column"), allowable values for variables ("Value"), whether variables contain sample or host information ("Category"), and variable definitions ("Explanation"). </t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1249,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1266,6 +1269,11 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
